--- a/target/classes/InputData.xlsx
+++ b/target/classes/InputData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kingslayer/Downloads/Selenium/datadrivenframework/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71351F2A-5619-CE44-A376-E6072A77D7A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BE201A-1CD3-0143-A5C3-3F14ED23C716}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" xr2:uid="{DF9544D2-1C45-E948-A6E3-DEC4A5293084}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Westeros" sheetId="1" r:id="rId1"/>
+    <sheet name="MiddleEarth" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>LastName</t>
   </si>
@@ -67,16 +68,84 @@
   </si>
   <si>
     <t>FirstName</t>
+  </si>
+  <si>
+    <t>Aryan</t>
+  </si>
+  <si>
+    <t>Malhotra</t>
+  </si>
+  <si>
+    <t>Miami, florida</t>
+  </si>
+  <si>
+    <t>ryanmalhotra@gmail.com</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Cricket</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Microsoft Office</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Malhotra12#</t>
+  </si>
+  <si>
+    <t>Sansa</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Winterfell, Westeros</t>
+  </si>
+  <si>
+    <t>sansa@grrm.com</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Movies, Hockey</t>
+  </si>
+  <si>
+    <t>Swedish</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Sansational12#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,13 +168,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,13 +492,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0AC21F-EA48-2D44-8456-798F0CDD1AD0}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -464,7 +541,223 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>3456234564</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>35011</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>7456345633</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36623</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{6723B8D8-6C7A-4644-87C7-B39613D7282B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{18DDB202-7A21-3540-B1B4-B6F3BAEAF0DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC592E9-22D8-194C-920B-508185B7AC33}">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3456234564</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>35011</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>7456345633</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2">
+        <v>36623</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{418E3DD1-0D29-8B46-B55E-B7187B9A0CB1}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{DAC4A612-28EE-2B49-A7A8-26CE5EFEDAB3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>